--- a/target/classes/static/document/price-list.xlsx
+++ b/target/classes/static/document/price-list.xlsx
@@ -5,25 +5,26 @@
   <fileSharing readOnlyRecommended="0" userName="ivan"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Снеки, игрушки, перчатки" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1706515716" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1706515716" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1706515716" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1706515716"/>
+      <pm:revision xmlns:pm="smNativeData" day="1708257415" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1708257415" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1708257415" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1708257415"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="513">
   <si>
     <t>ИП Высоцкая Виктория Анатольевна</t>
   </si>
@@ -688,6 +689,1698 @@
   </si>
   <si>
     <t>ЩУКА С/М ФИЛЕ 1/476</t>
+  </si>
+  <si>
+    <t>Телефон:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8-906-961-1329</t>
+  </si>
+  <si>
+    <t>Адрес: г.Бийск ул. Ленина 312</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E-mail: wiktoriy312117@yandex.ru            </t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом салями  жар./солёный</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом паприки  жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом васаби  жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом курица гриль  жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом аджики   жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом сметана/зелень  жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом холодец/хрен  жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом сметана/грибы     жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом краба     жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом креветки     жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом бекона    жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом сыр/чеснок     жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом копчёный лосось     жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом барбекю   жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис жареный, соленый</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="16"/>
+        <b/>
+        <i/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="320" weight="bold" i="1"/>
+              <pm:cs sz="280" weight="bold"/>
+              <pm:ea sz="280" weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b/>
+        <i/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="bold" i="1"/>
+              <pm:cs sz="280" weight="bold"/>
+              <pm:ea sz="280" weight="bold"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Арахис Натурешка </t>
+    </r>
+  </si>
+  <si>
+    <t>Арахис    со вкусом вареные раки жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом красная икра   жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом креветка  жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом мясо с горчицей     жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом шашлык    жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис    со вкусом краб  жар./солёный</t>
+  </si>
+  <si>
+    <t>Арахис жареный, нежный лосось</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="16"/>
+        <b/>
+        <i/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="320" weight="bold" i="1"/>
+              <pm:cs sz="320"/>
+              <pm:ea sz="320"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b/>
+        <i/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="bold" i="1"/>
+              <pm:cs sz="320"/>
+              <pm:ea sz="320"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>АРАХИС В Глазури(Рисово-хрустящейкорочке)</t>
+    </r>
+  </si>
+  <si>
+    <t>Арахис в  шелухе крупный СОЛЬ 1кг</t>
+  </si>
+  <si>
+    <t>Арахис в глазури "Микс" *980гр</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Арахис в глазури  со вкусом" четыре сыра"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазуре со вкусом "Сыра" *980гр.                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазуре со вкусом "Вассаби" *980гр.                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазури со вкусом"Чили" *980гр                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазури со вкусом"Лука" *980гр                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазури со вкусом"Томата" *980гр </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазури со вкусом"Лосося" *980гр </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазури со вкусом"Говядины" *980гр </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазури со вкусом"Курицы" *980гр </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арахис в глазури со вкусом"Чеснока" *980гр                                                   </t>
+  </si>
+  <si>
+    <t>Арахис в глазури со вкусом "Четыре сыра"*980 гр</t>
+  </si>
+  <si>
+    <t>Арахис в глазури со вкусом "Бекона"*980гр</t>
+  </si>
+  <si>
+    <t>Арахис    соленый (Китай) 50гр.</t>
+  </si>
+  <si>
+    <t>Арахис  хрустящий 50гр.</t>
+  </si>
+  <si>
+    <t>Арахис в хрустящей корочке 0,130гр(креветка,васс,бекон,микс)</t>
+  </si>
+  <si>
+    <t>Арахис  хрустящий Микс100гр.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
+              <pm:cs sz="320"/>
+              <pm:ea sz="320"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b/>
+        <i/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="bold" i="1"/>
+              <pm:cs sz="320"/>
+              <pm:ea sz="320"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> ФИСТАШКА</t>
+    </r>
+  </si>
+  <si>
+    <t>Фисташка жар/сол Американка</t>
+  </si>
+  <si>
+    <t>Фисташка жар/сол  Иранка</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                           </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="16"/>
+        <b/>
+        <i/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="320" weight="bold" i="1"/>
+              <pm:cs sz="320"/>
+              <pm:ea sz="320"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b/>
+        <i/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="bold" i="1"/>
+              <pm:cs sz="320"/>
+              <pm:ea sz="320"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> ГРЕНКИ</t>
+    </r>
+  </si>
+  <si>
+    <t>Сухарики со вкусом «красной икры»</t>
+  </si>
+  <si>
+    <t>Колечки 500гргренки чесночные</t>
+  </si>
+  <si>
+    <t>Багет с семечками пшеницы (рак+укроп,шашлык,тайскийперец)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сухари-Гренки Бородинские </t>
+  </si>
+  <si>
+    <t>Гренки Мягкие счесноком</t>
+  </si>
+  <si>
+    <t>Гренки-Слайсы (Телятина,Рак+укроп,Тайский перец)</t>
+  </si>
+  <si>
+    <t>Гренки-Слайсы (Телятина,Рак+укроп,Тайский перец)110гр</t>
+  </si>
+  <si>
+    <t>Сухарики Тайский перец (пшеничные)</t>
+  </si>
+  <si>
+    <t>Чипсы пшеничные (вкус :марин огурцы,карам. лук,кетчуп,крылыш барбекю,сыр)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бородинские со вкусом чеснока плоские </t>
+  </si>
+  <si>
+    <t>Сухари-Гренки со вкусом холодца</t>
+  </si>
+  <si>
+    <t>Сухари-Гренки Мексиканский микс</t>
+  </si>
+  <si>
+    <t>Сухари-Гренки со вкусом Маринов Огурец</t>
+  </si>
+  <si>
+    <t>Сухари-Гренки аджика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гренки 100гр </t>
+  </si>
+  <si>
+    <t>Гренки крылышки барбекю пшеничные</t>
+  </si>
+  <si>
+    <t>Сухари-Гренки паприка</t>
+  </si>
+  <si>
+    <t>Сухари-Гренки колбаски</t>
+  </si>
+  <si>
+    <t>Рисовые крекеры со вкусом Микс 500гр</t>
+  </si>
+  <si>
+    <t>Смесь Рисовых крекеров 1кг</t>
+  </si>
+  <si>
+    <t>Смесь Рисовых крекеров 1кг с Арахисом</t>
+  </si>
+  <si>
+    <t>Кешью Васаби</t>
+  </si>
+  <si>
+    <t>Миндаль Барбекю</t>
+  </si>
+  <si>
+    <t>сыр</t>
+  </si>
+  <si>
+    <t>Гренки пшеничные со вкусом сметана/зелень</t>
+  </si>
+  <si>
+    <t>Сухари в стакане 100гр. ассорт.</t>
+  </si>
+  <si>
+    <t>Сыр Моцарелла копчен Крупный шарик Фаворит 350гр</t>
+  </si>
+  <si>
+    <t>Сыр Жареный 0,500 Саганаки соломка</t>
+  </si>
+  <si>
+    <t>Сырные шарики воздушные ассорти,бекон,икра,оригинал)</t>
+  </si>
+  <si>
+    <t>Саргуль белый ,копченый</t>
+  </si>
+  <si>
+    <t>сыр Чеддер (грибы+сметана,халапеньо,аджика)</t>
+  </si>
+  <si>
+    <t>сыр Чеддер (грибы+сметана,халапеньо,аджика) рулет 150гр</t>
+  </si>
+  <si>
+    <t>Сыр сухой Бочонок</t>
+  </si>
+  <si>
+    <t>Сыр Спагетти-саргуль  в контейнере со вкусом(п-во Барс)</t>
+  </si>
+  <si>
+    <t>вакуум</t>
+  </si>
+  <si>
+    <t>Сыр паутинка НАНО кг(бел копченый)</t>
+  </si>
+  <si>
+    <t>Сыр Саргуль со вкусом(Контейнер пармезан,холодец,шашлык,вассаби)</t>
+  </si>
+  <si>
+    <t>Сыр Паутинка копченый</t>
+  </si>
+  <si>
+    <t>Сыр Паутинка белый</t>
+  </si>
+  <si>
+    <t>1кг</t>
+  </si>
+  <si>
+    <t>Соус 100гр</t>
+  </si>
+  <si>
+    <t>Соус 45гр</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                               </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="bold" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b/>
+        <i/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="bold" i="1"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>РЫБА СОЛЕНО-СУШЕНАЯ К ПИВУ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Желтый полосатик с/с                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Императорский полосатик с/с                                                                              </t>
+  </si>
+  <si>
+    <t>Навага по шанхайски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минтай филе с/с крупная </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кальмар японский деликатес 1 кг                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кальмар паутинка черная </t>
+  </si>
+  <si>
+    <t>Кальмар палочка</t>
+  </si>
+  <si>
+    <t>Кальмар стружка</t>
+  </si>
+  <si>
+    <t>Горбуша соломка РусФиш</t>
+  </si>
+  <si>
+    <t>Липаровые рыбы соломка с перцем</t>
+  </si>
+  <si>
+    <t>Кольцо Кальмара  сол суш</t>
+  </si>
+  <si>
+    <t>Минтай шинкованный с/с</t>
+  </si>
+  <si>
+    <t>Минтай филе с/с крупное</t>
+  </si>
+  <si>
+    <t>Угорьс/с</t>
+  </si>
+  <si>
+    <t>Хот тейз</t>
+  </si>
+  <si>
+    <t>Осьминоги пяточки</t>
+  </si>
+  <si>
+    <t>Мясо кальмара с крабом</t>
+  </si>
+  <si>
+    <t>Мясо кальмара по шанхайски (перец+кунжут)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">семга соломка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анчоус сол суш                                                                                          </t>
+  </si>
+  <si>
+    <t>Таранка соломка с перцем</t>
+  </si>
+  <si>
+    <t>Таранка сол/суш (соломка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Треска сол/суш  филе крупная                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Треска с перцем (соломка)                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янтарная  с перцем                   ,                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янтарная рыбка с перцем                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янтарное филе крупное с перцем       </t>
+  </si>
+  <si>
+    <t>ожид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янтарное филе крупное                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щука сол/суш                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щука сол/суш с перцем                                      </t>
+  </si>
+  <si>
+    <t>минтай шинков с перцем соломка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тунец сол/суш соломка                                   </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="16"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="320" weight="normal" i="0"/>
+              <pm:cs sz="200"/>
+              <pm:ea sz="200"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="12"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="240" weight="bold" i="0"/>
+              <pm:cs sz="200"/>
+              <pm:ea sz="200"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Рыбные соломки в/у,мясные закуски,колбаски(Россия)</t>
+    </r>
+  </si>
+  <si>
+    <t>Стрипсы Австрийские 0,500гр</t>
+  </si>
+  <si>
+    <t>Стрипсы Камчатские 0,500гр</t>
+  </si>
+  <si>
+    <t>Стрипсы Чизарио с со вкусом сыра 0,500гр</t>
+  </si>
+  <si>
+    <t>Стрипсы из мяса птицы с/к 500гр</t>
+  </si>
+  <si>
+    <t>Стрипсы Австрийские 0,150гр</t>
+  </si>
+  <si>
+    <t>Чес-пер кубики куриные с сыром (газ среда)150гр</t>
+  </si>
+  <si>
+    <t>Чес-Пер кубики куриные газ среда)500гр</t>
+  </si>
+  <si>
+    <t>Закуска по -пиратски г/к200гр</t>
+  </si>
+  <si>
+    <t>Чес-Пер кубики куриные газ среда)150гр</t>
+  </si>
+  <si>
+    <t>КарпаЧик с/к м/с в/у 500гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щука палочки в/у </t>
+  </si>
+  <si>
+    <t>180 сут</t>
+  </si>
+  <si>
+    <t>Колбаски Пиколини 50гр (Аджика,бекон,Чили)</t>
+  </si>
+  <si>
+    <t>Колбаски Пиколини 70гр (острые ,со вкусом хамона)</t>
+  </si>
+  <si>
+    <t>Колбаски Пиколини 1000гр (Аджика,бекон,Чили)</t>
+  </si>
+  <si>
+    <t>Чипсы из говядины 25г(перец красн.перец черный.классика)</t>
+  </si>
+  <si>
+    <t>Чипсы из индейки 25гр с Дымком</t>
+  </si>
+  <si>
+    <t>Чипсы из мяса телятины с дымком75гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чипсы из Марала 75гр Богатство Алтая </t>
+  </si>
+  <si>
+    <t>Чипсы из мяса свинина с дымком75гр Богатство Алтая</t>
+  </si>
+  <si>
+    <t>Чипсы из свинины 75гр Богатство Алтая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хворост мясной </t>
+  </si>
+  <si>
+    <t xml:space="preserve">колбаски неополитанские </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свинной Балычок Бриз в/у </t>
+  </si>
+  <si>
+    <t>Язык свиной 500гр по кавказски,с чесноком,фирменный</t>
+  </si>
+  <si>
+    <t>Язык свиной 100гр по кавказски,с чесноком,фирменный</t>
+  </si>
+  <si>
+    <t>Мясные кнуты</t>
+  </si>
+  <si>
+    <t>Мясные начесы</t>
+  </si>
+  <si>
+    <t>Колбаски Пепперони вес</t>
+  </si>
+  <si>
+    <t>Колбаски Пепперони 100гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чипсы Свинина </t>
+  </si>
+  <si>
+    <t>Чипсы куринные</t>
+  </si>
+  <si>
+    <t>Чипсы куринные Том Ям (Газ среда )500гр</t>
+  </si>
+  <si>
+    <t>Семга соломка в /у</t>
+  </si>
+  <si>
+    <t>Форель соломка в/у</t>
+  </si>
+  <si>
+    <t>Лосось соломка в/у</t>
+  </si>
+  <si>
+    <t>сом соломка</t>
+  </si>
+  <si>
+    <t>судак соломка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палочки кеты в/у 1кг </t>
+  </si>
+  <si>
+    <t>Чипсы Лейз 150гр. ассорти 18шт</t>
+  </si>
+  <si>
+    <t>Куринные закуски</t>
+  </si>
+  <si>
+    <t>Желудки куринные в /у по кавказски0300гр Бриз</t>
+  </si>
+  <si>
+    <t>Стрипсы(мясн) Австрийские 0,150гр</t>
+  </si>
+  <si>
+    <t>Чипсы мясные (Сырокопч из курицы)Каприз</t>
+  </si>
+  <si>
+    <t>Чипсы мясные (Сырокопч из утки)Каприз</t>
+  </si>
+  <si>
+    <t>Желудки курин ц/б(газ среда)0,300грНовосиб</t>
+  </si>
+  <si>
+    <t>Плечевая часть крыла 0,300Новосиб</t>
+  </si>
+  <si>
+    <t>Локтевая часть крыла ц/б 0,300 Новосиб</t>
+  </si>
+  <si>
+    <t>Сердце 0,300гр Новосиб</t>
+  </si>
+  <si>
+    <t>Хрящики Пикантыные 0,3Смак</t>
+  </si>
+  <si>
+    <t>Шейки 0,300 Новосиб</t>
+  </si>
+  <si>
+    <t>Хе из ушексвиных 500гр Бриз</t>
+  </si>
+  <si>
+    <t>Ухо свинное целое 150гр (крас перец,с чесноком,класс)</t>
+  </si>
+  <si>
+    <t>Уши свинные 0,100гр( по кавказ,по -мексикански,с чесноком)</t>
+  </si>
+  <si>
+    <t>Уши свинные 0,500гр( по кавказ,по -мексикански,с чесноком)</t>
+  </si>
+  <si>
+    <t>Шкурка свиная "Мексика"в/у</t>
+  </si>
+  <si>
+    <t>ЧИПСЫ.СУХАРИКИ</t>
+  </si>
+  <si>
+    <t>модный маникюр+драже1/12 шт</t>
+  </si>
+  <si>
+    <t>флейта-пчела с драже30шт</t>
+  </si>
+  <si>
+    <t>жевательный мармелад</t>
+  </si>
+  <si>
+    <t>ЧИПСЫ</t>
+  </si>
+  <si>
+    <t>Чипсы Лейз 140гр. ассорти 18шт</t>
+  </si>
+  <si>
+    <t>Чипсы Лейз 70гр. ассорти 18шт</t>
+  </si>
+  <si>
+    <t>Чипсы Лейз 50гр. ассорти 36шт</t>
+  </si>
+  <si>
+    <t>Чипсы Хомка 65гр. ассорти 20шт</t>
+  </si>
+  <si>
+    <t>Чипсы Хомка 38гр. ассорти 30шт</t>
+  </si>
+  <si>
+    <t>Чипсы Хомка 120гр. ассорти  10шт</t>
+  </si>
+  <si>
+    <t>Чипсы Бингрей зяки-зяки 50гр 1*30шт</t>
+  </si>
+  <si>
+    <t>Чипсы Бингрей краб 50гр 1*30шт</t>
+  </si>
+  <si>
+    <t>Миниральная , Лимонады, Соки</t>
+  </si>
+  <si>
+    <t>Питьевая вода "Ассоль" 1,5л/6</t>
+  </si>
+  <si>
+    <t>Питьевая вода "Ассоль" 6л</t>
+  </si>
+  <si>
+    <t>Питьевая вода "Ассоль" 0,5л/12</t>
+  </si>
+  <si>
+    <t>Питьевая вода "Ассоль" 0,33л/12</t>
+  </si>
+  <si>
+    <t>Мин.вода не газ "Лебедушка" 5л/2 шт</t>
+  </si>
+  <si>
+    <t>Мин.вода не газ "Лебедушка" 1,5л/12 шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мин.вода не газ "Лебедушка" 0,7л/12 шт </t>
+  </si>
+  <si>
+    <t>Мин.вода Карачинская 1,5л</t>
+  </si>
+  <si>
+    <t>Мин.вода Карачинская 0,5л</t>
+  </si>
+  <si>
+    <t>Напиток ЭВО махито 0,5л/12</t>
+  </si>
+  <si>
+    <t>Напиток ЭВО лимон 0,5л/12</t>
+  </si>
+  <si>
+    <t>Напиток ЭВО клубника 0,5л/12</t>
+  </si>
+  <si>
+    <t>Газ.напиток Фрутто 0,6л  асортиментом</t>
+  </si>
+  <si>
+    <t>Газ.напиток Фрутто 1,5л асортиментом</t>
+  </si>
+  <si>
+    <t>Газ.напиток Фрутто 2л  асортиментом</t>
+  </si>
+  <si>
+    <t>Напиток чай ассорти 0,5л/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квас "Бородинский"  1,5л </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> шт</t>
+  </si>
+  <si>
+    <t>Квас "Окрошечный"  1,5л</t>
+  </si>
+  <si>
+    <t>Квас "Хлебный"  1,5л</t>
+  </si>
+  <si>
+    <t>Квас Добродей Классический 1,5л</t>
+  </si>
+  <si>
+    <t>Квас Добродей Окрошечный 1,5л</t>
+  </si>
+  <si>
+    <t>Газ.напиток Грушевый 1,5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      шт</t>
+  </si>
+  <si>
+    <t>Газ.напиток  Лимонад 1,5л</t>
+  </si>
+  <si>
+    <t>Газ.напиток Тархун 1,5л</t>
+  </si>
+  <si>
+    <t>Газ.напиток Махито 1,5л</t>
+  </si>
+  <si>
+    <t>Газ.напиток "Лесные Ягоды" 1,5л</t>
+  </si>
+  <si>
+    <t>Газ.напиток Ситро стекло 0,5л</t>
+  </si>
+  <si>
+    <t>Газ.напиток Грушевый стекло 0,5л</t>
+  </si>
+  <si>
+    <t>Газ.напиток Махито стекло 0,5л</t>
+  </si>
+  <si>
+    <t>Чипсы Лейз 35гр</t>
+  </si>
+  <si>
+    <t>Чипсы кукурузные Начос 500гр</t>
+  </si>
+  <si>
+    <t>Лавашики100гр со вкусом (смет+зел,грибы,шашлык,сыр)</t>
+  </si>
+  <si>
+    <t>Чипсы хлебные100гр9красная икра,крылышки барб)</t>
+  </si>
+  <si>
+    <t>гренки  100г (малосоль огурец,чеснок,холодец,датский сыр,смет зел,,,)</t>
+  </si>
+  <si>
+    <t>Картофель Пивасики 40гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попкорт в стакане90гр </t>
+  </si>
+  <si>
+    <t>Попкортн в М/У зерно (карамель,соль,сырный)</t>
+  </si>
+  <si>
+    <t>Чипсы Бингрэй 50гр</t>
+  </si>
+  <si>
+    <t>Чипсы Макси лидер100гр ассорти</t>
+  </si>
+  <si>
+    <t>Чипсы Макси лидер50гр ассорти</t>
+  </si>
+  <si>
+    <t>Драже,сок сухой,игрушки,пузыри мыльн</t>
+  </si>
+  <si>
+    <t>Сухой раствор напиток Фруктовый Торнадо 1*24шт(апель,кола,манго,клубника)</t>
+  </si>
+  <si>
+    <t>Драже Холодок Ассорти 18шт</t>
+  </si>
+  <si>
+    <t>Драже ШокоТим шокол.соломка 50шт</t>
+  </si>
+  <si>
+    <t>Мыльные пузыри дракоша,куклы 1*6шт</t>
+  </si>
+  <si>
+    <t>Сахарная пудра120 шт</t>
+  </si>
+  <si>
+    <t>Сладкие палочки30шт</t>
+  </si>
+  <si>
+    <t>Хулиган+шарик+драже 30шт</t>
+  </si>
+  <si>
+    <t>Прыг-Уняшка+драже 30шт</t>
+  </si>
+  <si>
+    <t>Леденец Соска Зубик 30шт</t>
+  </si>
+  <si>
+    <t>Карамель на палочке Мистер Пяткин с кисл пудрой 48шт</t>
+  </si>
+  <si>
+    <t>Карамель на палочке Лизунец Тату 50шт</t>
+  </si>
+  <si>
+    <t>Жеват резинка 120шт ассорти</t>
+  </si>
+  <si>
+    <t>Мармелад светофорчик 30шт</t>
+  </si>
+  <si>
+    <t>МАрмелад шашлычок 50шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Желе Канди Клаб Зверюшки 100шт </t>
+  </si>
+  <si>
+    <t>Мотоцикл +драже 30шт</t>
+  </si>
+  <si>
+    <t>кофе 3 в 1 Лебо 1*50шт</t>
+  </si>
+  <si>
+    <t>Клевые часы 30шт</t>
+  </si>
+  <si>
+    <t>Зажигалки ,мешочки,перчатки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Зажигалка </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> CL-06(05) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>механическая прозрачная  50шт</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">зажигалки </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>ОneySH-03</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">  пьезо*50 шт машины ,девушки</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">зажигалки </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Qney SQ-01 (05)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> кожанные змея турбо1*50шт</t>
+    </r>
+  </si>
+  <si>
+    <t>зажигалки TA-09 СССР пьезоцветной фонарик 1*50 шт</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">зажигалка </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">Oney СL-06(03) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Крикет 50шт</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>зажигалки СССР</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">  турбо фонарик</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> 50шт</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">зажигалки </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>"Федор"</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> 1*50шт </t>
+    </r>
+  </si>
+  <si>
+    <t>Зажигалки федор</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Зажигалка </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>OneyFQ-03</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> пьезо с плен.девуш. с фон 25шт</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Зажигалка </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>CL-05</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>турбо МАШИНА</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> с фонариком  50шт</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">зажигалка </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>СL-04</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Color gaz пьезо с фон. и цвет. Газ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Зажигалка</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> Jin Yan 750</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> турбо, фонарик/многораз. 50шт.</t>
+    </r>
+  </si>
+  <si>
+    <t>Зажигалка кожа турбо TF-04</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">презервативы </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>Гороскоп любви</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> 24шт</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">презервативы </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="bold" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>"Неваляшка"</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+        <family val="1"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1708257415">
+              <pm:latin face="Times New Roman" sz="220" weight="normal" i="0"/>
+              <pm:cs sz="220"/>
+              <pm:ea sz="220"/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve"> 1*48 шт</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Майка ягода 50шт </t>
+  </si>
+  <si>
+    <t>Майка "Спасибо за покупку"  50шт</t>
+  </si>
+  <si>
+    <t>Майка цветн. 50 шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Майка Карго бол 50шт </t>
+  </si>
+  <si>
+    <t>Мешочек с замком для рыбы 10*10 100шт</t>
+  </si>
+  <si>
+    <t>упак</t>
+  </si>
+  <si>
+    <t>Мешочек с замком для рыбы 10*15 100шт</t>
+  </si>
+  <si>
+    <t>Мешочек с замком для рыбы 12*17 100шт</t>
+  </si>
+  <si>
+    <t>Мешочек с замком для рыбы 15*20 100шт</t>
+  </si>
+  <si>
+    <t>Мешок фасовочный 24*37  500шт.</t>
+  </si>
+  <si>
+    <t>Мешки д/мусора 30л 25шт</t>
+  </si>
+  <si>
+    <t>рул</t>
+  </si>
+  <si>
+    <t>Мешки д/мусора 60л 40шт</t>
+  </si>
+  <si>
+    <t>Перчатки х/б с ПВХ черные</t>
+  </si>
+  <si>
+    <t>Перчатки нитрил</t>
+  </si>
+  <si>
+    <t>Перчатки латексные1*25шт</t>
   </si>
 </sst>
 </file>
@@ -715,7 +2408,7 @@
     <numFmt numFmtId="9" formatCode="0%"/>
     <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="158">
+  <fonts count="182">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -723,7 +2416,7 @@
       <sz val="8"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -738,7 +2431,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -754,7 +2447,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -768,7 +2461,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -785,7 +2478,7 @@
       <sz val="28"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="560" lang="default" weight="bold" i="1"/>
             <pm:cs face="Basic Roman" sz="560" lang="default" weight="bold" i="1"/>
             <pm:ea face="Basic Roman" sz="560" lang="default" weight="bold" i="1"/>
@@ -802,7 +2495,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default" weight="bold" i="1"/>
             <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold" i="1"/>
             <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold" i="1"/>
@@ -816,7 +2509,7 @@
       <sz val="16"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="320" lang="default"/>
             <pm:cs face="Basic Roman" sz="320" lang="default"/>
             <pm:ea face="Basic Roman" sz="320" lang="default"/>
@@ -831,7 +2524,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
@@ -846,7 +2539,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -862,7 +2555,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -879,7 +2572,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -896,7 +2589,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -913,7 +2606,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -930,7 +2623,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -947,7 +2640,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -964,7 +2657,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -981,7 +2674,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -998,7 +2691,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1015,7 +2708,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1032,7 +2725,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1049,7 +2742,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1066,7 +2759,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1083,7 +2776,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1100,7 +2793,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1117,7 +2810,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1134,7 +2827,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1151,7 +2844,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1168,7 +2861,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1185,7 +2878,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1202,7 +2895,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1219,7 +2912,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1236,7 +2929,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1253,7 +2946,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1270,7 +2963,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1287,7 +2980,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1304,7 +2997,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1321,7 +3014,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1338,7 +3031,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1355,7 +3048,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1372,7 +3065,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1389,7 +3082,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1406,7 +3099,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1423,7 +3116,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1440,7 +3133,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1457,7 +3150,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1474,7 +3167,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1491,7 +3184,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1508,7 +3201,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1525,7 +3218,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1542,7 +3235,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1559,7 +3252,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1576,7 +3269,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1593,7 +3286,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1610,7 +3303,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1627,7 +3320,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1644,7 +3337,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1661,7 +3354,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1678,7 +3371,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1695,7 +3388,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1712,7 +3405,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1729,7 +3422,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1746,7 +3439,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1763,7 +3456,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1780,7 +3473,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1797,7 +3490,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1814,7 +3507,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1831,7 +3524,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1848,7 +3541,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1865,7 +3558,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1882,7 +3575,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1899,7 +3592,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1916,7 +3609,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1933,7 +3626,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1950,7 +3643,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1967,7 +3660,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -1984,7 +3677,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2001,7 +3694,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2018,7 +3711,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2035,7 +3728,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2052,7 +3745,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2069,7 +3762,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2086,7 +3779,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2103,7 +3796,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2120,7 +3813,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2137,7 +3830,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2154,7 +3847,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2171,7 +3864,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2188,7 +3881,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2205,7 +3898,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2222,7 +3915,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2239,7 +3932,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2256,7 +3949,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2273,7 +3966,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2290,7 +3983,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2307,7 +4000,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2324,7 +4017,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2341,7 +4034,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2358,7 +4051,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2375,7 +4068,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2392,7 +4085,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2409,7 +4102,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2426,7 +4119,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2443,7 +4136,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2460,7 +4153,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2477,7 +4170,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2494,7 +4187,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2511,7 +4204,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2528,7 +4221,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2545,7 +4238,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2562,7 +4255,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2579,7 +4272,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2596,7 +4289,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2613,7 +4306,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2630,7 +4323,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2647,7 +4340,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2664,7 +4357,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2681,7 +4374,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2698,7 +4391,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2715,7 +4408,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2732,7 +4425,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2749,7 +4442,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2766,7 +4459,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2783,7 +4476,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2800,7 +4493,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2817,7 +4510,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2834,7 +4527,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2851,7 +4544,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2868,7 +4561,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2885,7 +4578,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2902,7 +4595,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2919,7 +4612,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2936,7 +4629,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2953,7 +4646,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2970,7 +4663,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -2987,7 +4680,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3004,7 +4697,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3021,7 +4714,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3038,7 +4731,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3055,7 +4748,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3072,7 +4765,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3089,7 +4782,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3106,7 +4799,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3123,7 +4816,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3140,7 +4833,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3157,7 +4850,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3174,7 +4867,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3191,7 +4884,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3208,7 +4901,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3225,7 +4918,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3242,7 +4935,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3259,7 +4952,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3276,7 +4969,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3293,7 +4986,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3310,7 +5003,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3327,7 +5020,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3344,7 +5037,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3361,7 +5054,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3378,7 +5071,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706515716" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="160" lang="default"/>
             <pm:cs face="Basic Roman" sz="160" lang="default"/>
             <pm:ea face="Basic Roman" sz="160" lang="default"/>
@@ -3387,8 +5080,390 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="280" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="280" lang="default" weight="bold" i="1"/>
+            <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold" i="1"/>
+            <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold" i="1"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="20"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="400" lang="default"/>
+            <pm:cs face="Basic Roman" sz="400" lang="default"/>
+            <pm:ea face="Basic Roman" sz="400" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="320" lang="default" weight="bold" i="1"/>
+            <pm:cs face="Basic Roman" sz="320" lang="default" weight="bold" i="1"/>
+            <pm:ea face="Basic Roman" sz="320" lang="default" weight="bold" i="1"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default" weight="bold" i="1"/>
+            <pm:cs face="Basic Roman" sz="240" lang="default" weight="bold" i="1"/>
+            <pm:ea face="Basic Roman" sz="240" lang="default" weight="bold" i="1"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="320" lang="default"/>
+            <pm:cs face="Basic Roman" sz="320" lang="default"/>
+            <pm:ea face="Basic Roman" sz="320" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="8"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="160" lang="default"/>
+            <pm:cs face="Basic Roman" sz="160" lang="default"/>
+            <pm:ea face="Basic Roman" sz="160" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default"/>
+            <pm:cs face="Basic Roman" sz="240" lang="default"/>
+            <pm:ea face="Basic Roman" sz="240" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="320" lang="default" weight="bold" i="1"/>
+            <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default" weight="bold" i="1"/>
+            <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="320" lang="default" weight="bold" i="1"/>
+            <pm:cs face="Basic Roman" sz="320" lang="default"/>
+            <pm:ea face="Basic Roman" sz="320" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default" weight="bold" i="1"/>
+            <pm:cs face="Basic Roman" sz="320" lang="default"/>
+            <pm:ea face="Basic Roman" sz="320" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default"/>
+            <pm:cs face="Basic Roman" sz="320" lang="default"/>
+            <pm:ea face="Basic Roman" sz="320" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default"/>
+            <pm:cs face="Basic Roman" sz="160" lang="default"/>
+            <pm:ea face="Basic Roman" sz="160" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="160" lang="default"/>
+            <pm:ea face="Basic Roman" sz="160" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <i/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default" weight="bold" i="1"/>
+            <pm:cs face="Basic Roman" sz="160" lang="default"/>
+            <pm:ea face="Basic Roman" sz="160" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="320" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="240" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Times New Roman" sz="320" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="320" lang="default"/>
+            <pm:ea face="Basic Roman" sz="320" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Monotype Corsiva"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708257415" ulstyle="none" kern="1">
+            <pm:latin face="Monotype Corsiva" sz="280" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3409,22 +5484,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706515716" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF08709C"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706515716" type="1" fgLvl="100" fgClr="0008709C" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="0008709C" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3438,7 +5502,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706515716" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3449,7 +5513,18 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706515716" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3460,7 +5535,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706515716" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="0008709C"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3471,13 +5546,93 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1706515716" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="0008709C"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="0008709C"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="0008709C"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1708257415" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -3493,7 +5648,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716"/>
+          <pm:border xmlns:pm="smNativeData" id="1708257415"/>
         </ext>
       </extLst>
     </border>
@@ -3512,7 +5667,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3536,7 +5691,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3558,7 +5713,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3581,10 +5736,76 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -3604,10 +5825,194 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3628,42 +6033,18 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716"/>
+          <pm:border xmlns:pm="smNativeData" id="1708257415"/>
         </ext>
       </extLst>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -3671,33 +6052,10 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          <pm:border xmlns:pm="smNativeData" id="1708257415">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
       </extLst>
@@ -3709,41 +6067,15 @@
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706515716">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
+          <pm:border xmlns:pm="smNativeData" id="1708257415"/>
         </ext>
       </extLst>
     </border>
@@ -3753,7 +6085,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
@@ -3799,10 +6131,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3820,7 +6152,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4272,6 +6604,233 @@
     </xf>
     <xf numFmtId="0" fontId="157" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="161" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="164" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="164" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="164" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="161" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="161" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="161" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="165" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="161" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="161" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="161" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="161" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="161" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="166" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="161" fillId="9" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="166" fillId="9" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="161" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="161" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="165" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="165" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="166" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="166" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="166" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="161" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="161" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="161" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="166" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4282,15 +6841,85 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1706515716" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1708257415" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1706515716" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1708257415" count="2">
         <pm:color name="Цвет 24" rgb="08709C"/>
+        <pm:color name="Цвет 28" rgb="86A0CA"/>
       </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2988945</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник1"/>
+        <xdr:cNvSpPr>
+          <a:extLst>
+            <a:ext uri="smNativeData">
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_h/DRZRMAAAAlAAAAZAAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAPAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAVQB1AgUAAAAJAAAA8QALAWMSAAAeAAAA/CgAAGoHAAABAAAA"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2988945" y="19050"/>
+          <a:ext cx="6662420" cy="1205230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" defTabSz="360045" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-ru" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="100" spc="294" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="86A0CA"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Basic Roman" pitchFamily="1" charset="0"/>
+              <a:cs typeface="Basic Roman" pitchFamily="1" charset="0"/>
+            </a:rPr>
+            <a:t>ИП Высоцкая Виктория Анатольевна</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4554,8 +7183,8 @@
   </sheetPr>
   <dimension ref="A1:Q302"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="K304" sqref="K304"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.662921" defaultRowHeight="13.45"/>
@@ -10373,7 +13002,7 @@
       <c r="Q200" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="200" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="200" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10441,7 +13070,7 @@
       <c r="Q203" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="203" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="203" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10467,7 +13096,7 @@
       <c r="Q204" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="204" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="204" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10493,7 +13122,7 @@
       <c r="Q205" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="205" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="205" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10519,7 +13148,7 @@
       <c r="Q206" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="206" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="206" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10545,7 +13174,7 @@
       <c r="Q207" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="207" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="207" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10571,7 +13200,7 @@
       <c r="Q208" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="208" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="208" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10597,7 +13226,7 @@
       <c r="Q209" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="209" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="209" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10623,7 +13252,7 @@
       <c r="Q210" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="210" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="210" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10649,7 +13278,7 @@
       <c r="Q211" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="211" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="211" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10681,7 +13310,7 @@
       <c r="Q212" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="212" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="212" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10707,7 +13336,7 @@
       <c r="Q213" s="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="213" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="213" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10731,7 +13360,7 @@
       <c r="Q214" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="214" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="214" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10755,7 +13384,7 @@
       <c r="Q215" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="215" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="215" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10779,7 +13408,7 @@
       <c r="Q216" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="216" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="216" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10803,7 +13432,7 @@
       <c r="Q217" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="217" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="217" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10827,7 +13456,7 @@
       <c r="Q218" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="218" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="218" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10851,7 +13480,7 @@
       <c r="Q219" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="219" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="219" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10875,7 +13504,7 @@
       <c r="Q220" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="220" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="220" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10899,7 +13528,7 @@
       <c r="Q221" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="221" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="221" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -10923,7 +13552,7 @@
       <c r="Q222" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="222" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="222" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11461,7 +14090,7 @@
       <c r="Q241" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="241" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="241" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11485,7 +14114,7 @@
       <c r="Q242" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="242" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="242" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11509,7 +14138,7 @@
       <c r="Q243" s="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="243" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="243" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11533,7 +14162,7 @@
       <c r="Q244" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="244" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="244" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11557,7 +14186,7 @@
       <c r="Q245" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="245" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="245" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11581,7 +14210,7 @@
       <c r="Q246" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="246" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="246" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11605,7 +14234,7 @@
       <c r="Q247" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="247" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="247" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11629,7 +14258,7 @@
       <c r="Q248" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="248" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="248" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11653,7 +14282,7 @@
       <c r="Q249" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="249" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="249" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11677,7 +14306,7 @@
       <c r="Q250" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="250" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="250" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11701,7 +14330,7 @@
       <c r="Q251" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="251" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="251" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11725,7 +14354,7 @@
       <c r="Q252" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="252" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="252" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11749,7 +14378,7 @@
       <c r="Q253" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="253" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="253" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11773,7 +14402,7 @@
       <c r="Q254" s="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="254" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="254" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11797,7 +14426,7 @@
       <c r="Q255" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="255" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="255" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11821,7 +14450,7 @@
       <c r="Q256" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="256" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="256" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11845,7 +14474,7 @@
       <c r="Q257" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="257" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="257" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11869,7 +14498,7 @@
       <c r="Q258" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="258" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="258" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11893,7 +14522,7 @@
       <c r="Q259" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="259" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="259" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11917,7 +14546,7 @@
       <c r="Q260" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="260" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="260" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11941,7 +14570,7 @@
       <c r="Q261" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="261" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="261" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11965,7 +14594,7 @@
       <c r="Q262" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="262" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="262" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -11989,7 +14618,7 @@
       <c r="Q263" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="263" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="263" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12013,7 +14642,7 @@
       <c r="Q264" s="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="264" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="264" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12037,7 +14666,7 @@
       <c r="Q265" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="265" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="265" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12061,7 +14690,7 @@
       <c r="Q266" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="266" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="266" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12085,7 +14714,7 @@
       <c r="Q267" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="267" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="267" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12109,7 +14738,7 @@
       <c r="Q268" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="268" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="268" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12133,7 +14762,7 @@
       <c r="Q269" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="269" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="269" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12157,7 +14786,7 @@
       <c r="Q270" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="270" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="270" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12181,7 +14810,7 @@
       <c r="Q271" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="271" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="271" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12205,7 +14834,7 @@
       <c r="Q272" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="272" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="272" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12229,7 +14858,7 @@
       <c r="Q273" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="273" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="273" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12253,7 +14882,7 @@
       <c r="Q274" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="274" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="274" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12277,7 +14906,7 @@
       <c r="Q275" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="275" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="275" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12301,7 +14930,7 @@
       <c r="Q276" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="276" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="276" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12325,7 +14954,7 @@
       <c r="Q277" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="277" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="277" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12349,7 +14978,7 @@
       <c r="Q278" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="278" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="278" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12373,7 +15002,7 @@
       <c r="Q279" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="279" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="279" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12397,7 +15026,7 @@
       <c r="Q280" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="280" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="280" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12421,7 +15050,7 @@
       <c r="Q281" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="281" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="281" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12445,7 +15074,7 @@
       <c r="Q282" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="282" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="282" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12469,7 +15098,7 @@
       <c r="Q283" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="283" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="283" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12493,7 +15122,7 @@
       <c r="Q284" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="284" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="284" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12517,7 +15146,7 @@
       <c r="Q285" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="285" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="285" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12541,7 +15170,7 @@
       <c r="Q286" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="286" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="286" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12565,7 +15194,7 @@
       <c r="Q287" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="287" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="287" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12589,7 +15218,7 @@
       <c r="Q288" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="288" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="288" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12613,7 +15242,7 @@
       <c r="Q289" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="289" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="289" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12637,7 +15266,7 @@
       <c r="Q290" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="290" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="290" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12661,7 +15290,7 @@
       <c r="Q291" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="291" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="291" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12685,7 +15314,7 @@
       <c r="Q292" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="292" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="292" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12709,7 +15338,7 @@
       <c r="Q293" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="293" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="293" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12733,7 +15362,7 @@
       <c r="Q294" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="294" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="294" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12757,7 +15386,7 @@
       <c r="Q295" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="295" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="295" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12781,7 +15410,7 @@
       <c r="Q296" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="296" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="296" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12805,7 +15434,7 @@
       <c r="Q297" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="297" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="297" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12829,7 +15458,7 @@
       <c r="Q298" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="298" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="298" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12853,7 +15482,7 @@
       <c r="Q299" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="299" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="299" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12877,7 +15506,7 @@
       <c r="Q300" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="300" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="300" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12901,7 +15530,7 @@
       <c r="Q301" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="301" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="301" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -12925,7 +15554,7 @@
       <c r="Q302" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1706515716" r="302" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="302" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -14150,7 +16779,7 @@
   <printOptions gridLines="1">
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1706515716" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1708257415" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -14159,14 +16788,3539 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1706515716" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1706515716" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1708257415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1708257415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706515716" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1708257415" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:H308"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="11.15"/>
+  <cols>
+    <col min="1" max="1" width="86.101124" customWidth="1"/>
+    <col min="4" max="4" width="12.067416" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="175" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="175" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="177" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="179" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="186" t="n">
+        <v>336</v>
+      </c>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="184" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="186" t="n">
+        <v>275</v>
+      </c>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="184" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="186"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="186"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="184" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="185"/>
+      <c r="C11" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="186"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="184" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="185"/>
+      <c r="C12" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="186" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="186" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="186" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="186" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="185"/>
+      <c r="C16" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="186" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="185"/>
+      <c r="C17" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="186" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="184" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="185"/>
+      <c r="C18" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="186"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="185"/>
+      <c r="C19" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="186"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="184" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="186" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="188" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="186" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="181" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="184" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="185"/>
+      <c r="C23" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="185"/>
+      <c r="C24" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="184" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="185"/>
+      <c r="C25" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="186" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="184" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="185"/>
+      <c r="C26" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="186"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="185"/>
+      <c r="C27" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="186"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="184" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="186"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="185"/>
+      <c r="C31" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="185"/>
+      <c r="C32" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="184" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="185"/>
+      <c r="C33" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="185"/>
+      <c r="C34" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="186" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="184" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="185"/>
+      <c r="C35" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="186"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="185"/>
+      <c r="C36" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="186"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="184" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="185"/>
+      <c r="C37" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="188" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="185"/>
+      <c r="C38" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="186" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="189" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="191"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" s="193"/>
+      <c r="C40" s="193" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="194" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="195" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41" s="196"/>
+      <c r="C41" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="186" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="197"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="199"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="197" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="196"/>
+      <c r="C43" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="186" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="197" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="196"/>
+      <c r="C44" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="200" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="197" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="196"/>
+      <c r="C45" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="200" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="197" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="196"/>
+      <c r="C46" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="200" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="197" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" s="196"/>
+      <c r="C47" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="200" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="197" t="s">
+        <v>258</v>
+      </c>
+      <c r="B48" s="196"/>
+      <c r="C48" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="200" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="197" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="196"/>
+      <c r="C49" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="200"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="197" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="196"/>
+      <c r="C50" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="200"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="197" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="196"/>
+      <c r="C51" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="201"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="197" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="196"/>
+      <c r="C52" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="201"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="197" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" s="196"/>
+      <c r="C53" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="201"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="197" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" s="196"/>
+      <c r="C54" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="201"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="195" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="196"/>
+      <c r="C55" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="201"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="195" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="196"/>
+      <c r="C56" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="201" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="196"/>
+      <c r="C57" s="198"/>
+      <c r="D57" s="201" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="195" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="196"/>
+      <c r="C58" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="201" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="202" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="203"/>
+      <c r="C59" s="203"/>
+      <c r="D59" s="204"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="205" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="206"/>
+      <c r="C60" s="207" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="208" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="205" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="206"/>
+      <c r="C61" s="207" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="208" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="202" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" s="203"/>
+      <c r="C62" s="203"/>
+      <c r="D62" s="204"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="202"/>
+      <c r="B63" s="203"/>
+      <c r="C63" s="203"/>
+      <c r="D63" s="204"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="202"/>
+      <c r="B64" s="203"/>
+      <c r="C64" s="203"/>
+      <c r="D64" s="204"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="209" t="s">
+        <v>273</v>
+      </c>
+      <c r="B65" s="196"/>
+      <c r="C65" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="210" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="209" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" s="196"/>
+      <c r="C66" s="185"/>
+      <c r="D66" s="210" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="209" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" s="196"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="210" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="209" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" s="196"/>
+      <c r="C68" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="210" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="209" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="196"/>
+      <c r="C69" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="210" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="209" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="196"/>
+      <c r="C70" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="210" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="196"/>
+      <c r="C71" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="210" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="187" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" s="196"/>
+      <c r="C72" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="211" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="212" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" s="196"/>
+      <c r="C73" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="211" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="187" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" s="196"/>
+      <c r="C74" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="211" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="187" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" s="196"/>
+      <c r="C75" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="211" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="187" t="s">
+        <v>284</v>
+      </c>
+      <c r="B76" s="196"/>
+      <c r="C76" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="211" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="187" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" s="196"/>
+      <c r="C77" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="211" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="187" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" s="196"/>
+      <c r="C78" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="211" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="187" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="196"/>
+      <c r="C79" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" s="211" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="187" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" s="196"/>
+      <c r="C80" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="211" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="187" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" s="196"/>
+      <c r="C81" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" s="211"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="187" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" s="196"/>
+      <c r="C82" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="211"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="209" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" s="196"/>
+      <c r="C83" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="210" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="209" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="196"/>
+      <c r="C84" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" s="210" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="209" t="s">
+        <v>293</v>
+      </c>
+      <c r="B85" s="196"/>
+      <c r="C85" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D85" s="210" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="187" t="s">
+        <v>294</v>
+      </c>
+      <c r="B86" s="196"/>
+      <c r="C86" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="211" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="187" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" s="196"/>
+      <c r="C87" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" s="211" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="202" t="s">
+        <v>296</v>
+      </c>
+      <c r="B88" s="203"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="204"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="187" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" s="196"/>
+      <c r="C89" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="211" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="187" t="s">
+        <v>298</v>
+      </c>
+      <c r="B90" s="196"/>
+      <c r="C90" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D90" s="211" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="187" t="s">
+        <v>299</v>
+      </c>
+      <c r="B91" s="196"/>
+      <c r="C91" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="211" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="187" t="s">
+        <v>300</v>
+      </c>
+      <c r="B92" s="196"/>
+      <c r="C92" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="211" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="187"/>
+      <c r="B93" s="196"/>
+      <c r="C93" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="211"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="213" t="s">
+        <v>301</v>
+      </c>
+      <c r="B94" s="214"/>
+      <c r="C94" s="215"/>
+      <c r="D94" s="216" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="213" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" s="214"/>
+      <c r="C95" s="215"/>
+      <c r="D95" s="216" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="213" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="214"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="216" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="213" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97" s="214"/>
+      <c r="C97" s="215"/>
+      <c r="D97" s="216" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="213" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="214"/>
+      <c r="C98" s="215"/>
+      <c r="D98" s="216" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="213" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="214" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" s="215"/>
+      <c r="D99" s="216" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="213" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="214" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" s="215"/>
+      <c r="D100" s="216" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="213" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="214" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="215"/>
+      <c r="D101" s="216" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="217" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="214" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" s="215"/>
+      <c r="D102" s="216" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="217" t="s">
+        <v>311</v>
+      </c>
+      <c r="B103" s="214" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" s="215" t="s">
+        <v>312</v>
+      </c>
+      <c r="D103" s="216" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="217" t="s">
+        <v>313</v>
+      </c>
+      <c r="B104" s="214"/>
+      <c r="C104" s="215"/>
+      <c r="D104" s="216" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="187" t="s">
+        <v>314</v>
+      </c>
+      <c r="B105" s="196"/>
+      <c r="C105" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D105" s="211" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="219" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" s="220"/>
+      <c r="C106" s="220"/>
+      <c r="D106" s="221"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="222" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="196"/>
+      <c r="C107" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="201" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="222" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="196"/>
+      <c r="C108" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="201" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="222" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="196"/>
+      <c r="C109" s="185"/>
+      <c r="D109" s="201" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="222" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" s="196"/>
+      <c r="C110" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="201" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="222" t="s">
+        <v>320</v>
+      </c>
+      <c r="B111" s="196"/>
+      <c r="C111" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" s="201" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="222" t="s">
+        <v>321</v>
+      </c>
+      <c r="B112" s="196"/>
+      <c r="C112" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" s="201" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="222" t="s">
+        <v>322</v>
+      </c>
+      <c r="B113" s="196"/>
+      <c r="C113" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" s="201" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="222" t="s">
+        <v>323</v>
+      </c>
+      <c r="B114" s="196"/>
+      <c r="C114" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" s="201" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="222" t="s">
+        <v>324</v>
+      </c>
+      <c r="B115" s="196"/>
+      <c r="C115" s="185"/>
+      <c r="D115" s="201" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="222" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" s="196"/>
+      <c r="C116" s="185"/>
+      <c r="D116" s="201" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="222" t="s">
+        <v>326</v>
+      </c>
+      <c r="B117" s="196"/>
+      <c r="C117" s="185"/>
+      <c r="D117" s="201" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="223" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" s="196"/>
+      <c r="C118" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" s="208" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="222" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" s="196"/>
+      <c r="C119" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D119" s="201" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="222" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" s="196"/>
+      <c r="C120" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" s="201" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="222" t="s">
+        <v>330</v>
+      </c>
+      <c r="B121" s="196"/>
+      <c r="C121" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D121" s="200" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="223" t="s">
+        <v>331</v>
+      </c>
+      <c r="B122" s="196"/>
+      <c r="C122" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D122" s="208" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="223" t="s">
+        <v>332</v>
+      </c>
+      <c r="B123" s="196"/>
+      <c r="C123" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" s="208" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="223" t="s">
+        <v>333</v>
+      </c>
+      <c r="B124" s="196"/>
+      <c r="C124" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" s="208" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="223" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" s="196"/>
+      <c r="C125" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D125" s="186" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="223" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" s="196"/>
+      <c r="C126" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="186" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="222" t="s">
+        <v>336</v>
+      </c>
+      <c r="B127" s="196"/>
+      <c r="C127" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D127" s="200" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="222" t="s">
+        <v>337</v>
+      </c>
+      <c r="B128" s="196"/>
+      <c r="C128" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D128" s="200" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="223" t="s">
+        <v>338</v>
+      </c>
+      <c r="B129" s="196"/>
+      <c r="C129" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D129" s="186" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="223" t="s">
+        <v>339</v>
+      </c>
+      <c r="B130" s="196"/>
+      <c r="C130" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D130" s="186" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="223" t="s">
+        <v>340</v>
+      </c>
+      <c r="B131" s="196"/>
+      <c r="C131" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" s="186" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="223" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" s="196"/>
+      <c r="C132" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D132" s="186" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="224" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" s="196"/>
+      <c r="C133" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D133" s="186" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="224" t="s">
+        <v>344</v>
+      </c>
+      <c r="B134" s="196"/>
+      <c r="C134" s="196" t="s">
+        <v>226</v>
+      </c>
+      <c r="D134" s="225" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="226" t="s">
+        <v>345</v>
+      </c>
+      <c r="B135" s="196"/>
+      <c r="C135" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D135" s="200" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="226" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" s="196"/>
+      <c r="C136" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D136" s="200" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="222" t="s">
+        <v>347</v>
+      </c>
+      <c r="B137" s="196"/>
+      <c r="C137" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D137" s="200" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="223" t="s">
+        <v>348</v>
+      </c>
+      <c r="B138" s="196"/>
+      <c r="C138" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="D138" s="186" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="26.95" customHeight="1">
+      <c r="A139" s="227" t="s">
+        <v>349</v>
+      </c>
+      <c r="B139" s="196"/>
+      <c r="C139" s="185"/>
+      <c r="D139" s="186"/>
+    </row>
+    <row r="140" spans="1:6" hidden="1">
+      <c r="A140" s="227" t="s">
+        <v>350</v>
+      </c>
+      <c r="B140" s="196"/>
+      <c r="C140" s="185"/>
+      <c r="D140" s="186" t="n">
+        <v>570</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="140" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="141" spans="1:6" hidden="1">
+      <c r="A141" s="227" t="s">
+        <v>351</v>
+      </c>
+      <c r="B141" s="196"/>
+      <c r="C141" s="185"/>
+      <c r="D141" s="186" t="n">
+        <v>480</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="141" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="142" spans="1:6" hidden="1">
+      <c r="A142" s="227" t="s">
+        <v>352</v>
+      </c>
+      <c r="B142" s="196"/>
+      <c r="C142" s="185"/>
+      <c r="D142" s="186" t="n">
+        <v>570</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="142" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="143" spans="1:6" hidden="1">
+      <c r="A143" s="227" t="s">
+        <v>353</v>
+      </c>
+      <c r="B143" s="196"/>
+      <c r="C143" s="185"/>
+      <c r="D143" s="186" t="n">
+        <v>800</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="143" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="144" spans="1:6" hidden="1">
+      <c r="A144" s="227" t="s">
+        <v>354</v>
+      </c>
+      <c r="B144" s="196"/>
+      <c r="C144" s="185"/>
+      <c r="D144" s="186" t="n">
+        <v>189</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="144" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="145" spans="1:6" hidden="1">
+      <c r="A145" s="227" t="s">
+        <v>355</v>
+      </c>
+      <c r="B145" s="196"/>
+      <c r="C145" s="185"/>
+      <c r="D145" s="186" t="n">
+        <v>142</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="145" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="146" spans="1:6" hidden="1">
+      <c r="A146" s="227" t="s">
+        <v>356</v>
+      </c>
+      <c r="B146" s="196"/>
+      <c r="C146" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D146" s="186" t="n">
+        <v>560</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="146" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="147" spans="1:6" hidden="1">
+      <c r="A147" s="227" t="s">
+        <v>357</v>
+      </c>
+      <c r="B147" s="196"/>
+      <c r="C147" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D147" s="186" t="n">
+        <v>71</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="147" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="227" t="s">
+        <v>358</v>
+      </c>
+      <c r="B148" s="196"/>
+      <c r="C148" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D148" s="186" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="212" t="s">
+        <v>359</v>
+      </c>
+      <c r="B149" s="228"/>
+      <c r="C149" s="229" t="s">
+        <v>226</v>
+      </c>
+      <c r="D149" s="230" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="212" t="s">
+        <v>360</v>
+      </c>
+      <c r="B150" s="228" t="s">
+        <v>361</v>
+      </c>
+      <c r="C150" s="229" t="s">
+        <v>226</v>
+      </c>
+      <c r="D150" s="230" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1">
+      <c r="A151" s="212" t="s">
+        <v>362</v>
+      </c>
+      <c r="B151" s="228"/>
+      <c r="C151" s="229"/>
+      <c r="D151" s="230" t="n">
+        <v>77</v>
+      </c>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="151" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="212" t="s">
+        <v>363</v>
+      </c>
+      <c r="B152" s="228"/>
+      <c r="C152" s="229"/>
+      <c r="D152" s="230" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="212" t="s">
+        <v>364</v>
+      </c>
+      <c r="B153" s="228"/>
+      <c r="C153" s="229"/>
+      <c r="D153" s="230" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="212" t="s">
+        <v>365</v>
+      </c>
+      <c r="B154" s="228"/>
+      <c r="C154" s="229"/>
+      <c r="D154" s="230" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="212" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" s="228"/>
+      <c r="C155" s="229"/>
+      <c r="D155" s="230" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="212" t="s">
+        <v>367</v>
+      </c>
+      <c r="B156" s="228"/>
+      <c r="C156" s="229"/>
+      <c r="D156" s="230" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="B157" s="228"/>
+      <c r="C157" s="229"/>
+      <c r="D157" s="230" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="212" t="s">
+        <v>369</v>
+      </c>
+      <c r="B158" s="228"/>
+      <c r="C158" s="229"/>
+      <c r="D158" s="230" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="212" t="s">
+        <v>370</v>
+      </c>
+      <c r="B159" s="228"/>
+      <c r="C159" s="229"/>
+      <c r="D159" s="230" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="212" t="s">
+        <v>371</v>
+      </c>
+      <c r="B160" s="228" t="s">
+        <v>361</v>
+      </c>
+      <c r="C160" s="229" t="s">
+        <v>226</v>
+      </c>
+      <c r="D160" s="231" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1">
+      <c r="A161" s="212" t="s">
+        <v>372</v>
+      </c>
+      <c r="B161" s="228" t="s">
+        <v>361</v>
+      </c>
+      <c r="C161" s="229" t="s">
+        <v>226</v>
+      </c>
+      <c r="D161" s="231"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:rowDef xmlns:pm="smNativeData" id="1708257415" r="161" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="212" t="s">
+        <v>373</v>
+      </c>
+      <c r="B162" s="228"/>
+      <c r="C162" s="232" t="s">
+        <v>252</v>
+      </c>
+      <c r="D162" s="231" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="212" t="s">
+        <v>374</v>
+      </c>
+      <c r="B163" s="228"/>
+      <c r="C163" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D163" s="231" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="212" t="s">
+        <v>375</v>
+      </c>
+      <c r="B164" s="228"/>
+      <c r="C164" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D164" s="231" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="212" t="s">
+        <v>376</v>
+      </c>
+      <c r="B165" s="228" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D165" s="231" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="212" t="s">
+        <v>377</v>
+      </c>
+      <c r="B166" s="228"/>
+      <c r="C166" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D166" s="231" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="212" t="s">
+        <v>378</v>
+      </c>
+      <c r="B167" s="228"/>
+      <c r="C167" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D167" s="231" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="212" t="s">
+        <v>379</v>
+      </c>
+      <c r="B168" s="228"/>
+      <c r="C168" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D168" s="231" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="212" t="s">
+        <v>380</v>
+      </c>
+      <c r="B169" s="228"/>
+      <c r="C169" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D169" s="231" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="212" t="s">
+        <v>381</v>
+      </c>
+      <c r="B170" s="228"/>
+      <c r="C170" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D170" s="231" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="212" t="s">
+        <v>382</v>
+      </c>
+      <c r="B171" s="228"/>
+      <c r="C171" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D171" s="231" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="212" t="s">
+        <v>383</v>
+      </c>
+      <c r="B172" s="228"/>
+      <c r="C172" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D172" s="231" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="212" t="s">
+        <v>384</v>
+      </c>
+      <c r="B173" s="228"/>
+      <c r="C173" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D173" s="231" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="212" t="s">
+        <v>385</v>
+      </c>
+      <c r="B174" s="228"/>
+      <c r="C174" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D174" s="231" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="212" t="s">
+        <v>386</v>
+      </c>
+      <c r="B175" s="228"/>
+      <c r="C175" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D175" s="231" t="n">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="212" t="s">
+        <v>387</v>
+      </c>
+      <c r="B176" s="228"/>
+      <c r="C176" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D176" s="231" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="212" t="s">
+        <v>388</v>
+      </c>
+      <c r="B177" s="228" t="s">
+        <v>361</v>
+      </c>
+      <c r="C177" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="D177" s="231" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="233" t="s">
+        <v>389</v>
+      </c>
+      <c r="B178" s="234"/>
+      <c r="C178" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D178" s="235" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="236"/>
+      <c r="B179" s="237"/>
+      <c r="C179" s="237"/>
+      <c r="D179" s="238"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="236"/>
+      <c r="B180" s="237"/>
+      <c r="C180" s="237"/>
+      <c r="D180" s="238"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="239" t="s">
+        <v>390</v>
+      </c>
+      <c r="B181" s="240"/>
+      <c r="C181" s="240"/>
+      <c r="D181" s="241"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="236" t="s">
+        <v>391</v>
+      </c>
+      <c r="B182" s="237"/>
+      <c r="C182" s="237"/>
+      <c r="D182" s="238" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="236"/>
+      <c r="B183" s="237"/>
+      <c r="C183" s="237"/>
+      <c r="D183" s="238" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="236"/>
+      <c r="B184" s="237"/>
+      <c r="C184" s="237"/>
+      <c r="D184" s="238" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="236" t="s">
+        <v>392</v>
+      </c>
+      <c r="B185" s="237"/>
+      <c r="C185" s="237"/>
+      <c r="D185" s="238" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="236"/>
+      <c r="B186" s="237"/>
+      <c r="C186" s="237"/>
+      <c r="D186" s="238"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="236" t="s">
+        <v>393</v>
+      </c>
+      <c r="B187" s="237"/>
+      <c r="C187" s="237"/>
+      <c r="D187" s="238" t="n">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="236" t="s">
+        <v>394</v>
+      </c>
+      <c r="B188" s="237"/>
+      <c r="C188" s="237"/>
+      <c r="D188" s="238" t="n">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="236" t="s">
+        <v>395</v>
+      </c>
+      <c r="B189" s="237"/>
+      <c r="C189" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D189" s="238" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="236" t="s">
+        <v>396</v>
+      </c>
+      <c r="B190" s="237"/>
+      <c r="C190" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D190" s="238" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="236" t="s">
+        <v>397</v>
+      </c>
+      <c r="B191" s="237"/>
+      <c r="C191" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D191" s="238" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="236" t="s">
+        <v>398</v>
+      </c>
+      <c r="B192" s="237"/>
+      <c r="C192" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D192" s="238" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="236" t="s">
+        <v>399</v>
+      </c>
+      <c r="B193" s="237"/>
+      <c r="C193" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D193" s="238" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="236" t="s">
+        <v>400</v>
+      </c>
+      <c r="B194" s="237"/>
+      <c r="C194" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D194" s="238" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="236" t="s">
+        <v>401</v>
+      </c>
+      <c r="B195" s="237"/>
+      <c r="C195" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D195" s="238" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="236" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196" s="237"/>
+      <c r="C196" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D196" s="238" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="236" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" s="237"/>
+      <c r="C197" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D197" s="238" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="236" t="s">
+        <v>404</v>
+      </c>
+      <c r="B198" s="237"/>
+      <c r="C198" s="237" t="s">
+        <v>226</v>
+      </c>
+      <c r="D198" s="238" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="236" t="s">
+        <v>405</v>
+      </c>
+      <c r="B199" s="237"/>
+      <c r="C199" s="237" t="s">
+        <v>226</v>
+      </c>
+      <c r="D199" s="238" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="239"/>
+      <c r="B200" s="240"/>
+      <c r="C200" s="240"/>
+      <c r="D200" s="241"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="239" t="s">
+        <v>406</v>
+      </c>
+      <c r="B201" s="240"/>
+      <c r="C201" s="240"/>
+      <c r="D201" s="241"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="239" t="s">
+        <v>407</v>
+      </c>
+      <c r="B202" s="240"/>
+      <c r="C202" s="240"/>
+      <c r="D202" s="241" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="239" t="s">
+        <v>408</v>
+      </c>
+      <c r="B203" s="240"/>
+      <c r="C203" s="240"/>
+      <c r="D203" s="241" t="n">
+        <v>14.0199999999999996</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="239" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" s="240"/>
+      <c r="C204" s="240"/>
+      <c r="D204" s="241" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="239"/>
+      <c r="B205" s="240"/>
+      <c r="C205" s="240"/>
+      <c r="D205" s="241"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="239" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="240"/>
+      <c r="C206" s="240"/>
+      <c r="D206" s="241"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="233" t="s">
+        <v>411</v>
+      </c>
+      <c r="B207" s="234"/>
+      <c r="C207" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D207" s="235" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="233" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" s="234"/>
+      <c r="C208" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D208" s="235" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="233" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" s="234"/>
+      <c r="C209" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D209" s="235" t="n">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="233" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" s="234"/>
+      <c r="C210" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D210" s="242" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="233" t="s">
+        <v>415</v>
+      </c>
+      <c r="B211" s="234"/>
+      <c r="C211" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D211" s="242" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="233" t="s">
+        <v>416</v>
+      </c>
+      <c r="B212" s="234"/>
+      <c r="C212" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D212" s="242" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="233" t="s">
+        <v>417</v>
+      </c>
+      <c r="B213" s="234"/>
+      <c r="C213" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D213" s="242"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="233" t="s">
+        <v>418</v>
+      </c>
+      <c r="B214" s="234"/>
+      <c r="C214" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D214" s="242"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="243" t="s">
+        <v>419</v>
+      </c>
+      <c r="B215" s="244"/>
+      <c r="C215" s="244"/>
+      <c r="D215" s="245"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="246" t="s">
+        <v>420</v>
+      </c>
+      <c r="B216" s="196"/>
+      <c r="C216" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D216" s="247" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="246" t="s">
+        <v>421</v>
+      </c>
+      <c r="B217" s="196"/>
+      <c r="C217" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D217" s="247" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="246" t="s">
+        <v>422</v>
+      </c>
+      <c r="B218" s="196"/>
+      <c r="C218" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D218" s="247" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="246" t="s">
+        <v>423</v>
+      </c>
+      <c r="B219" s="196"/>
+      <c r="C219" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D219" s="247" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="246" t="s">
+        <v>424</v>
+      </c>
+      <c r="B220" s="196"/>
+      <c r="C220" s="218"/>
+      <c r="D220" s="247" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="246" t="s">
+        <v>425</v>
+      </c>
+      <c r="B221" s="196"/>
+      <c r="C221" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D221" s="247" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="246" t="s">
+        <v>426</v>
+      </c>
+      <c r="B222" s="196"/>
+      <c r="C222" s="218"/>
+      <c r="D222" s="247" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="246" t="s">
+        <v>427</v>
+      </c>
+      <c r="B223" s="196"/>
+      <c r="C223" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D223" s="247" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="246" t="s">
+        <v>428</v>
+      </c>
+      <c r="B224" s="196"/>
+      <c r="C224" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D224" s="247" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="246" t="s">
+        <v>429</v>
+      </c>
+      <c r="B225" s="196"/>
+      <c r="C225" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D225" s="247" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="246" t="s">
+        <v>430</v>
+      </c>
+      <c r="B226" s="196"/>
+      <c r="C226" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D226" s="247" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="246" t="s">
+        <v>431</v>
+      </c>
+      <c r="B227" s="196"/>
+      <c r="C227" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D227" s="247" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="246" t="s">
+        <v>432</v>
+      </c>
+      <c r="B228" s="196"/>
+      <c r="C228" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D228" s="247" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="246" t="s">
+        <v>433</v>
+      </c>
+      <c r="B229" s="196"/>
+      <c r="C229" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D229" s="247" t="n">
+        <v>22.6999999999999993</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="246" t="s">
+        <v>434</v>
+      </c>
+      <c r="B230" s="196"/>
+      <c r="C230" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D230" s="247" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="246" t="s">
+        <v>435</v>
+      </c>
+      <c r="B231" s="196"/>
+      <c r="C231" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D231" s="247" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="246" t="s">
+        <v>436</v>
+      </c>
+      <c r="B232" s="196"/>
+      <c r="C232" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="D232" s="247" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="246" t="s">
+        <v>438</v>
+      </c>
+      <c r="B233" s="196"/>
+      <c r="C233" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D233" s="247" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="246" t="s">
+        <v>439</v>
+      </c>
+      <c r="B234" s="196"/>
+      <c r="C234" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D234" s="247" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="246" t="s">
+        <v>440</v>
+      </c>
+      <c r="B235" s="196"/>
+      <c r="C235" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D235" s="247" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="246" t="s">
+        <v>441</v>
+      </c>
+      <c r="B236" s="196"/>
+      <c r="C236" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D236" s="247" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="246" t="s">
+        <v>442</v>
+      </c>
+      <c r="B237" s="196"/>
+      <c r="C237" s="218" t="s">
+        <v>443</v>
+      </c>
+      <c r="D237" s="247" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="246" t="s">
+        <v>444</v>
+      </c>
+      <c r="B238" s="196"/>
+      <c r="C238" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D238" s="247" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="246" t="s">
+        <v>445</v>
+      </c>
+      <c r="B239" s="196"/>
+      <c r="C239" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D239" s="247" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="246" t="s">
+        <v>446</v>
+      </c>
+      <c r="B240" s="196"/>
+      <c r="C240" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D240" s="247" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="246" t="s">
+        <v>447</v>
+      </c>
+      <c r="B241" s="196"/>
+      <c r="C241" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D241" s="247" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="246" t="s">
+        <v>448</v>
+      </c>
+      <c r="B242" s="196"/>
+      <c r="C242" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D242" s="247" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="246" t="s">
+        <v>449</v>
+      </c>
+      <c r="B243" s="196"/>
+      <c r="C243" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D243" s="247" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="246" t="s">
+        <v>450</v>
+      </c>
+      <c r="B244" s="196"/>
+      <c r="C244" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D244" s="247" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="246" t="s">
+        <v>451</v>
+      </c>
+      <c r="B245" s="196"/>
+      <c r="C245" s="218"/>
+      <c r="D245" s="247" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="246"/>
+      <c r="B246" s="196"/>
+      <c r="C246" s="218"/>
+      <c r="D246" s="247"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="246" t="s">
+        <v>452</v>
+      </c>
+      <c r="B247" s="248"/>
+      <c r="C247" s="248"/>
+      <c r="D247" s="249" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="187"/>
+      <c r="B248" s="248"/>
+      <c r="C248" s="248"/>
+      <c r="D248" s="249" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="187" t="s">
+        <v>453</v>
+      </c>
+      <c r="B249" s="248"/>
+      <c r="C249" s="248"/>
+      <c r="D249" s="249" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="187" t="s">
+        <v>454</v>
+      </c>
+      <c r="B250" s="248"/>
+      <c r="C250" s="248"/>
+      <c r="D250" s="249" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="187" t="s">
+        <v>455</v>
+      </c>
+      <c r="B251" s="248"/>
+      <c r="C251" s="248"/>
+      <c r="D251" s="249"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="187" t="s">
+        <v>456</v>
+      </c>
+      <c r="B252" s="248"/>
+      <c r="C252" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D252" s="249" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="187" t="s">
+        <v>457</v>
+      </c>
+      <c r="B253" s="248"/>
+      <c r="C253" s="248"/>
+      <c r="D253" s="249" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="187" t="s">
+        <v>458</v>
+      </c>
+      <c r="B254" s="248"/>
+      <c r="C254" s="248"/>
+      <c r="D254" s="249" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="187" t="s">
+        <v>459</v>
+      </c>
+      <c r="B255" s="248"/>
+      <c r="C255" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D255" s="249" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="187" t="s">
+        <v>460</v>
+      </c>
+      <c r="B256" s="248"/>
+      <c r="C256" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D256" s="249" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="187" t="s">
+        <v>461</v>
+      </c>
+      <c r="B257" s="203"/>
+      <c r="C257" s="203"/>
+      <c r="D257" s="204"/>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="256" t="s">
+        <v>462</v>
+      </c>
+      <c r="B258" s="203"/>
+      <c r="C258" s="203"/>
+      <c r="D258" s="204"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="233" t="s">
+        <v>463</v>
+      </c>
+      <c r="B259" s="234"/>
+      <c r="C259" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D259" s="235" t="n">
+        <v>9.80000000000000071</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="233" t="s">
+        <v>464</v>
+      </c>
+      <c r="B260" s="234"/>
+      <c r="C260" s="234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D260" s="235" t="n">
+        <v>15.8000000000000007</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="246" t="s">
+        <v>465</v>
+      </c>
+      <c r="B261" s="196"/>
+      <c r="C261" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D261" s="247" t="n">
+        <v>9.80000000000000071</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="246" t="s">
+        <v>466</v>
+      </c>
+      <c r="B262" s="196"/>
+      <c r="C262" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D262" s="247" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="246" t="s">
+        <v>467</v>
+      </c>
+      <c r="B263" s="196"/>
+      <c r="C263" s="218" t="s">
+        <v>252</v>
+      </c>
+      <c r="D263" s="247" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="246" t="s">
+        <v>468</v>
+      </c>
+      <c r="B264" s="248"/>
+      <c r="C264" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D264" s="249" t="n">
+        <v>7.79999999999999982</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="187" t="s">
+        <v>469</v>
+      </c>
+      <c r="B265" s="248"/>
+      <c r="C265" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D265" s="249" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="187" t="s">
+        <v>470</v>
+      </c>
+      <c r="B266" s="248"/>
+      <c r="C266" s="248"/>
+      <c r="D266" s="249" t="n">
+        <v>15.4000000000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="187" t="s">
+        <v>471</v>
+      </c>
+      <c r="B267" s="248"/>
+      <c r="C267" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D267" s="249" t="n">
+        <v>13.1999999999999993</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="187" t="s">
+        <v>472</v>
+      </c>
+      <c r="B268" s="248"/>
+      <c r="C268" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D268" s="249" t="n">
+        <v>10.1999999999999993</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="187" t="s">
+        <v>473</v>
+      </c>
+      <c r="B269" s="248"/>
+      <c r="C269" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D269" s="249" t="n">
+        <v>5.79999999999999982</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="187"/>
+      <c r="B270" s="248"/>
+      <c r="C270" s="248"/>
+      <c r="D270" s="249"/>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="187" t="s">
+        <v>474</v>
+      </c>
+      <c r="B271" s="248"/>
+      <c r="C271" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D271" s="249" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="187" t="s">
+        <v>475</v>
+      </c>
+      <c r="B272" s="248"/>
+      <c r="C272" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D272" s="249" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="187" t="s">
+        <v>476</v>
+      </c>
+      <c r="B273" s="248"/>
+      <c r="C273" s="248"/>
+      <c r="D273" s="249" t="n">
+        <v>15.8000000000000007</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="187" t="s">
+        <v>477</v>
+      </c>
+      <c r="B274" s="248"/>
+      <c r="C274" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D274" s="249" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="187" t="s">
+        <v>478</v>
+      </c>
+      <c r="B275" s="248"/>
+      <c r="C275" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D275" s="249" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="187" t="s">
+        <v>479</v>
+      </c>
+      <c r="B276" s="248"/>
+      <c r="C276" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D276" s="249" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="187" t="s">
+        <v>480</v>
+      </c>
+      <c r="B277" s="248"/>
+      <c r="C277" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D277" s="249" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="256" t="s">
+        <v>481</v>
+      </c>
+      <c r="B278" s="250"/>
+      <c r="C278" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D278" s="251"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="252" t="s">
+        <v>482</v>
+      </c>
+      <c r="B279" s="250"/>
+      <c r="C279" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D279" s="251" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="253" t="s">
+        <v>483</v>
+      </c>
+      <c r="B280" s="250"/>
+      <c r="C280" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D280" s="251" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="253" t="s">
+        <v>484</v>
+      </c>
+      <c r="B281" s="250"/>
+      <c r="C281" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D281" s="251" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="253" t="s">
+        <v>485</v>
+      </c>
+      <c r="B282" s="250"/>
+      <c r="C282" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D282" s="251" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="253" t="s">
+        <v>486</v>
+      </c>
+      <c r="B283" s="250"/>
+      <c r="C283" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D283" s="251" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="253" t="s">
+        <v>487</v>
+      </c>
+      <c r="B284" s="250"/>
+      <c r="C284" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D284" s="251" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="252" t="s">
+        <v>488</v>
+      </c>
+      <c r="B285" s="250"/>
+      <c r="C285" s="250"/>
+      <c r="D285" s="251"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="252" t="s">
+        <v>489</v>
+      </c>
+      <c r="B286" s="250"/>
+      <c r="C286" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D286" s="251" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="252" t="s">
+        <v>490</v>
+      </c>
+      <c r="B287" s="250"/>
+      <c r="C287" s="250"/>
+      <c r="D287" s="251"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="252"/>
+      <c r="B288" s="250"/>
+      <c r="C288" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D288" s="251" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="252" t="s">
+        <v>491</v>
+      </c>
+      <c r="B289" s="250"/>
+      <c r="C289" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D289" s="251" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="252" t="s">
+        <v>492</v>
+      </c>
+      <c r="B290" s="250"/>
+      <c r="C290" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D290" s="251" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="252" t="s">
+        <v>493</v>
+      </c>
+      <c r="B291" s="250"/>
+      <c r="C291" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D291" s="251" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="252" t="s">
+        <v>494</v>
+      </c>
+      <c r="B292" s="250"/>
+      <c r="C292" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D292" s="251" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="252" t="s">
+        <v>495</v>
+      </c>
+      <c r="B293" s="254"/>
+      <c r="C293" s="254" t="s">
+        <v>252</v>
+      </c>
+      <c r="D293" s="235" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="255" t="s">
+        <v>496</v>
+      </c>
+      <c r="B294" s="254"/>
+      <c r="C294" s="254" t="s">
+        <v>252</v>
+      </c>
+      <c r="D294" s="235" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="255" t="s">
+        <v>497</v>
+      </c>
+      <c r="B295" s="254"/>
+      <c r="C295" s="254" t="s">
+        <v>252</v>
+      </c>
+      <c r="D295" s="235" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="255" t="s">
+        <v>498</v>
+      </c>
+      <c r="B296" s="254"/>
+      <c r="C296" s="254" t="s">
+        <v>252</v>
+      </c>
+      <c r="D296" s="235" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="255" t="s">
+        <v>499</v>
+      </c>
+      <c r="B297" s="254"/>
+      <c r="C297" s="254" t="s">
+        <v>252</v>
+      </c>
+      <c r="D297" s="235" t="n">
+        <v>4.40000000000000036</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="255" t="s">
+        <v>500</v>
+      </c>
+      <c r="B298" s="254"/>
+      <c r="C298" s="254" t="s">
+        <v>252</v>
+      </c>
+      <c r="D298" s="235" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="255" t="s">
+        <v>501</v>
+      </c>
+      <c r="B299" s="254"/>
+      <c r="C299" s="254" t="s">
+        <v>502</v>
+      </c>
+      <c r="D299" s="235" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="255" t="s">
+        <v>503</v>
+      </c>
+      <c r="B300" s="254"/>
+      <c r="C300" s="254" t="s">
+        <v>502</v>
+      </c>
+      <c r="D300" s="235" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="255" t="s">
+        <v>504</v>
+      </c>
+      <c r="B301" s="254"/>
+      <c r="C301" s="254" t="s">
+        <v>502</v>
+      </c>
+      <c r="D301" s="235" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="255" t="s">
+        <v>505</v>
+      </c>
+      <c r="B302" s="254"/>
+      <c r="C302" s="254" t="s">
+        <v>502</v>
+      </c>
+      <c r="D302" s="235" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="255" t="s">
+        <v>506</v>
+      </c>
+      <c r="B303" s="254"/>
+      <c r="C303" s="254" t="s">
+        <v>252</v>
+      </c>
+      <c r="D303" s="235" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="255" t="s">
+        <v>507</v>
+      </c>
+      <c r="B304" s="254"/>
+      <c r="C304" s="254" t="s">
+        <v>508</v>
+      </c>
+      <c r="D304" s="235" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="255" t="s">
+        <v>509</v>
+      </c>
+      <c r="B305" s="254"/>
+      <c r="C305" s="254"/>
+      <c r="D305" s="235" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="255" t="s">
+        <v>510</v>
+      </c>
+      <c r="B306" s="254"/>
+      <c r="C306" s="254"/>
+      <c r="D306" s="235" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="255" t="s">
+        <v>511</v>
+      </c>
+      <c r="B307" s="254"/>
+      <c r="C307" s="254" t="s">
+        <v>508</v>
+      </c>
+      <c r="D307" s="235" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="255" t="s">
+        <v>512</v>
+      </c>
+      <c r="B308" s="254"/>
+      <c r="C308" s="254" t="s">
+        <v>252</v>
+      </c>
+      <c r="D308" s="235"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A215:D215"/>
+  </mergeCells>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1708257415" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1708257415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1708257415" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1708257415" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
